--- a/AI_result/1_获取注册短信验证码_responsexlsx.xlsx
+++ b/AI_result/1_获取注册短信验证码_responsexlsx.xlsx
@@ -476,11 +476,11 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346005</v>
+        <v>0.06886299999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"code":0,"message":"成功","data":{"code":"4607"}}</t>
+          <t>{"code":0,"message":"成功","data":{"code":"3031"}}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': '4607'}</t>
+          <t>{'code': '3031'}</t>
         </is>
       </c>
     </row>

--- a/AI_result/1_获取注册短信验证码_responsexlsx.xlsx
+++ b/AI_result/1_获取注册短信验证码_responsexlsx.xlsx
@@ -476,11 +476,11 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06886299999999999</v>
+        <v>242.936598</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"code":0,"message":"成功","data":{"code":"3031"}}</t>
+          <t>{"code":0,"message":"成功","data":{"code":"8941"}}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': '3031'}</t>
+          <t>{'code': '8941'}</t>
         </is>
       </c>
     </row>

--- a/AI_result/1_获取注册短信验证码_responsexlsx.xlsx
+++ b/AI_result/1_获取注册短信验证码_responsexlsx.xlsx
@@ -476,11 +476,11 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>242.936598</v>
+        <v>0.041693</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"code":0,"message":"成功","data":{"code":"8941"}}</t>
+          <t>{"code":0,"message":"成功","data":{"code":"1819"}}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': '8941'}</t>
+          <t>{'code': '1819'}</t>
         </is>
       </c>
     </row>
